--- a/modelagem/Resultados_2018 1ª abordagem/4. Abril/resultados.xlsx
+++ b/modelagem/Resultados_2018 1ª abordagem/4. Abril/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,887 +436,720 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Modelo Individual Treino</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>ativos</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Modelo Individual Teste</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo por grupos Teste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0.1419427617672459</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>ABEV3</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>224575573973346.2</v>
-      </c>
       <c r="C2" t="n">
-        <v>115485410937884.6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>596766393595932.4</v>
+        <v>0.10586619572877</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0.2048083931003256</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>B3SA3</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>6.814346986366981</v>
-      </c>
       <c r="C3" t="n">
-        <v>6.408990335610277</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.13110474344482</v>
+        <v>0.1710440180025463</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0.2883308952301582</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9775119126781791</v>
-      </c>
       <c r="C4" t="n">
-        <v>1.375734958942002</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.17200957577189</v>
+        <v>0.2138675780669678</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0.2243259526768105</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>BBDC3</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1.466500913946543</v>
-      </c>
       <c r="C5" t="n">
-        <v>1.258722059761588</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.120820609998555</v>
+        <v>0.1895724979341174</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>0.1879510504029522</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>BBDC4</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2.596862779368614</v>
-      </c>
       <c r="C6" t="n">
-        <v>4.062246705860845</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.552056381857821</v>
+        <v>0.1922362279597609</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>0.16199046110162</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>BEEF3</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5.350549172065207</v>
-      </c>
       <c r="C7" t="n">
-        <v>3.496173525830709</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.106801856104549</v>
+        <v>0.1023011349717766</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>0.05382389186070458</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>BRAP4</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.108968629571023</v>
-      </c>
       <c r="C8" t="n">
-        <v>0.979296317610194</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9381285907937592</v>
+        <v>0.1305197138718748</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>0.2468992999432295</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>BRFS3</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.7046403701846163</v>
-      </c>
       <c r="C9" t="n">
-        <v>0.6309560681710319</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5723132781526202</v>
+        <v>0.08917450947726037</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>0.1278300197977891</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>BRKM5</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.3700004444148505</v>
-      </c>
       <c r="C10" t="n">
-        <v>0.422407399994567</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4953570006779082</v>
+        <v>0.01764254681730644</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>0.1669342387515015</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>CCRO3</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1.75252538671051</v>
-      </c>
       <c r="C11" t="n">
-        <v>1.408154177919478</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.345052663117334</v>
+        <v>0.1412585903026713</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>0.2266828586969669</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>CIEL3</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1.225129131545825</v>
-      </c>
       <c r="C12" t="n">
-        <v>1.5961868537965</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.132347295522254</v>
+        <v>0.05721638757315296</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>0.1970410825795586</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>CMIG4</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>1.542169805444909</v>
-      </c>
       <c r="C13" t="n">
-        <v>1.068336491144283</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.476178893019326</v>
+        <v>0.1461806482911951</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>0.2592136411437456</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>CPFE3</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>1.189674487477216</v>
-      </c>
       <c r="C14" t="n">
-        <v>0.8469605580986035</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.134081297099724</v>
+        <v>0.1710576911875987</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>0.166509483670296</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>CPLE6</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.7443586031239458</v>
-      </c>
       <c r="C15" t="n">
-        <v>1.00432421712938</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.152652470022534</v>
+        <v>0.1466910187480135</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>0.1695913377939266</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>CSAN3</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.8980822136486549</v>
-      </c>
       <c r="C16" t="n">
-        <v>1.13119148528785</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.064518624320315</v>
+        <v>0.1744514018450342</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>0.2634793747224723</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>CSNA3</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.9330184843810285</v>
-      </c>
       <c r="C17" t="n">
-        <v>0.9657102033833262</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.242098672082307</v>
+        <v>0.2228985785075264</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>0.1704522493615885</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>CYRE3</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>1.41075759507873</v>
-      </c>
       <c r="C18" t="n">
-        <v>1.041952188157227</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.722469265117974</v>
+        <v>0.1156814660737343</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>0.3161459513656608</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>EGIE3</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2.774442809603597</v>
-      </c>
       <c r="C19" t="n">
-        <v>1.826973962238625</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.942763950746217</v>
+        <v>0.2408861473799886</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>0.2483248126345014</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>ELET3</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>1.2644661790796</v>
-      </c>
       <c r="C20" t="n">
-        <v>0.9322214409409301</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.137279657439567</v>
+        <v>0.1198865589012717</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>0.234030514687753</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>ELET6</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0.8105068990172746</v>
-      </c>
       <c r="C21" t="n">
-        <v>0.7097371840930226</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.7456096259167975</v>
+        <v>0.09216009933693614</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>0.03073567086945529</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>EMBR3</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>1.54983696762794</v>
-      </c>
       <c r="C22" t="n">
-        <v>2.244524094526049</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.378697115189483</v>
+        <v>0.02752413397360451</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>0.2750460185572445</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>ENBR3</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>1.408870799385778</v>
-      </c>
       <c r="C23" t="n">
-        <v>0.9075523367946341</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.205613242537495</v>
+        <v>0.1745632364965191</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>0.1992394641760818</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>ENEV3</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.9157600566201413</v>
-      </c>
       <c r="C24" t="n">
-        <v>0.7038449962097686</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.4073181128720951</v>
+        <v>0.1149334928219874</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>0.33359316819331</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>ENGI11</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2.208343385857168</v>
-      </c>
       <c r="C25" t="n">
-        <v>1.240902529417925</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.667364899083804</v>
+        <v>0.1494876400389748</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>0.16629235796405</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>EQTL3</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>4.983705892414005</v>
-      </c>
       <c r="C26" t="n">
-        <v>5.004759661130132</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.590378138013502</v>
+        <v>0.1918144655587613</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>0.2517119712788431</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>EZTC3</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>1.221844437368552</v>
-      </c>
       <c r="C27" t="n">
-        <v>0.9620718700402036</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.459662177726244</v>
+        <v>0.1468097195113027</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>0.06424045817575294</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>FLRY3</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>1.190448369955072</v>
-      </c>
       <c r="C28" t="n">
-        <v>1.374561825309031</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.359513244338391</v>
+        <v>0.05413518117784571</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>0.1182905553009316</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>GGBR4</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>1.074479555884154</v>
-      </c>
       <c r="C29" t="n">
-        <v>0.6565020458094658</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.9212967152135101</v>
+        <v>0.0579516651906604</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>0.0557604230730491</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>GOAU4</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>2.219941531484928</v>
-      </c>
       <c r="C30" t="n">
-        <v>2.043612029708917</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.601198490880861</v>
+        <v>0.02439962813921403</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>0.2268201588431907</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>GOLL4</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2.618014232549479</v>
-      </c>
       <c r="C31" t="n">
-        <v>3.125771801227699</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2.440002063043705</v>
+        <v>0.1106854623672163</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>0.1409932609689554</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>HYPE3</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>1.393312716074326</v>
-      </c>
       <c r="C32" t="n">
-        <v>2.077359594900011</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.885933567292835</v>
+        <v>0.1049597876098817</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>0.1532241998651414</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>ITSA4</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>7.180203357939107</v>
-      </c>
       <c r="C33" t="n">
-        <v>3.977130633429427</v>
-      </c>
-      <c r="D33" t="n">
-        <v>6.807923292441057</v>
+        <v>0.1286268335163828</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>0.1583553968000731</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>ITUB4</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>211084029858680.3</v>
-      </c>
       <c r="C34" t="n">
-        <v>75857497940880.98</v>
-      </c>
-      <c r="D34" t="n">
-        <v>862480367809205.1</v>
+        <v>0.1704849058705891</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>0.3284322796962125</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>JBSS3</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>1.026082994086826</v>
-      </c>
       <c r="C35" t="n">
-        <v>1.190271779317589</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3.380917989404226</v>
+        <v>0.1733158554913683</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>0.1889063236527561</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>JHSF3</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2.005368395908873</v>
-      </c>
       <c r="C36" t="n">
-        <v>1.466602803698823</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1.912108732381887</v>
+        <v>0.1394925463034663</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>0.2928339491397336</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>LREN3</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>1.550181211782863</v>
-      </c>
       <c r="C37" t="n">
-        <v>1.601670274677656</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.194564370326981</v>
+        <v>0.1724856466685937</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>0.1129178336393936</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>MRFG3</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>1.513014805319088</v>
-      </c>
       <c r="C38" t="n">
-        <v>0.651851067945582</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.7449393479307391</v>
+        <v>0.1087422501775697</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>0.1660288171071225</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>MRVE3</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>1.774201552396425</v>
-      </c>
       <c r="C39" t="n">
-        <v>1.220038095708976</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1.149367565183515</v>
+        <v>0.1693849113440362</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>0.2546320603781249</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>MULT3</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2.692427844136406</v>
-      </c>
       <c r="C40" t="n">
-        <v>1.539731079494998</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4.753278032006357</v>
+        <v>0.07817681465065998</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>0.1217986146529139</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>PETR3</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>2.781649703122682</v>
-      </c>
       <c r="C41" t="n">
-        <v>1.774923620385421</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.554323114989069</v>
+        <v>0.1007189934417094</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>0.2221415392067658</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>PETR4</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>5.665965684530892</v>
-      </c>
       <c r="C42" t="n">
-        <v>1.350400869301414</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2.566632032553906</v>
+        <v>0.1473441487869155</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>0.1343555266733613</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>RADL3</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>1.587583791473223</v>
-      </c>
       <c r="C43" t="n">
-        <v>2.654044268416399</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2.52286488659941</v>
+        <v>0.05853515465241637</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>0.341939860973878</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>RENT3</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0.9194264529284686</v>
-      </c>
       <c r="C44" t="n">
-        <v>0.7021824052030271</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.7562595443907991</v>
+        <v>0.1912357511399866</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>0.2146988775040732</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>SANB11</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>2.916699069224405</v>
-      </c>
       <c r="C45" t="n">
-        <v>3.120842965037734</v>
-      </c>
-      <c r="D45" t="n">
-        <v>5.835615662628063</v>
+        <v>0.07685349850109724</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>0.2106349923929024</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>SBSP3</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>487403457478255.3</v>
-      </c>
       <c r="C46" t="n">
-        <v>186559802998075.4</v>
-      </c>
-      <c r="D46" t="n">
-        <v>964040564463774.2</v>
+        <v>0.196301356349593</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>0.2317894499673803</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>TAEE11</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>5.051867079779579</v>
-      </c>
       <c r="C47" t="n">
-        <v>3.150284000603663</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3.32693461757509</v>
+        <v>0.1930853528880333</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>0.03648730104118125</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>TIMS3</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>2.991051629894359</v>
-      </c>
       <c r="C48" t="n">
-        <v>3.645166742456037</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.472061717136605</v>
+        <v>0.07265462479644991</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>0.2064098923260201</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>TOTS3</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>0.5442063951149096</v>
-      </c>
       <c r="C49" t="n">
-        <v>0.4263028360407013</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.6670273064996634</v>
+        <v>0.2250593388645711</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>0.1596361879340043</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>UGPA3</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>0.3807382231415214</v>
-      </c>
       <c r="C50" t="n">
-        <v>0.4276288263737343</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.2840337537305469</v>
+        <v>0.07908530777124531</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>0.08630460683045266</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>USIM5</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>2.115509767471969</v>
-      </c>
       <c r="C51" t="n">
-        <v>0.9380045349944017</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.9068881007383438</v>
+        <v>0.08159679022248104</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>0.1402852986832847</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>VALE3</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>1.32087516105472</v>
-      </c>
       <c r="C52" t="n">
-        <v>0.7533805970128546</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9094631764989151</v>
+        <v>0.192606426782764</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>0.08581088459269653</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>VIVT3</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>5.738035542302604</v>
-      </c>
       <c r="C53" t="n">
-        <v>1.730383441766298</v>
-      </c>
-      <c r="D53" t="n">
-        <v>6.566128768804894</v>
+        <v>0.1109519818069861</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>0.1407003154787516</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>WEGE3</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>1.744179112671709</v>
-      </c>
       <c r="C54" t="n">
-        <v>2.376884023057415</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3.544388805849521</v>
+        <v>0.04951695368600945</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>0.2336233069719443</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>YDUQ3</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>2.215922252519392</v>
-      </c>
       <c r="C55" t="n">
-        <v>11.77593697820479</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4.281760314010622</v>
+        <v>0.03991951704598348</v>
       </c>
     </row>
   </sheetData>
